--- a/ky/downloads/data-excel/16.1.4.1a.xlsx
+++ b/ky/downloads/data-excel/16.1.4.1a.xlsx
@@ -692,11 +692,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -706,7 +704,7 @@
     <col min="4" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>34</v>
       </c>
@@ -717,7 +715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -740,7 +738,7 @@
       <c r="N2" s="26"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="29"/>
       <c r="C3" s="30"/>
@@ -757,7 +755,7 @@
       <c r="N3" s="26"/>
       <c r="O3" s="28"/>
     </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -815,8 +813,11 @@
       <c r="S4" s="8">
         <v>2022</v>
       </c>
+      <c r="T4" s="8">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -874,8 +875,11 @@
       <c r="S5" s="32">
         <v>4.9538761752705343</v>
       </c>
+      <c r="T5" s="32">
+        <v>4.8187602774004432</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
@@ -933,8 +937,11 @@
       <c r="S6" s="33">
         <v>11.304954640614097</v>
       </c>
+      <c r="T6" s="33">
+        <v>11.788953009068425</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
@@ -992,8 +999,11 @@
       <c r="S7" s="33">
         <v>5.1593323216995444</v>
       </c>
+      <c r="T7" s="33">
+        <v>5.2855407047387608</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
@@ -1051,8 +1061,11 @@
       <c r="S8" s="33">
         <v>13.687943262411348</v>
       </c>
+      <c r="T8" s="33">
+        <v>11.35112240576027</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
@@ -1110,8 +1123,11 @@
       <c r="S9" s="33">
         <v>10.22864019253911</v>
       </c>
+      <c r="T9" s="33">
+        <v>16.577540106951872</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
@@ -1169,8 +1185,11 @@
       <c r="S10" s="33">
         <v>9.1213700670141478</v>
       </c>
+      <c r="T10" s="33">
+        <v>14.651002073255009</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
@@ -1228,8 +1247,11 @@
       <c r="S11" s="33">
         <v>3.1335149863760217</v>
       </c>
+      <c r="T11" s="33">
+        <v>5.034965034965035</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>24</v>
       </c>
@@ -1287,8 +1309,11 @@
       <c r="S12" s="33">
         <v>2.872905173311127</v>
       </c>
+      <c r="T12" s="33">
+        <v>3.1837160751565765</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>27</v>
       </c>
@@ -1346,8 +1371,11 @@
       <c r="S13" s="33">
         <v>3.527842284697861</v>
       </c>
+      <c r="T13" s="33">
+        <v>2.2263731825525039</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>30</v>
       </c>
@@ -1404,6 +1432,9 @@
       </c>
       <c r="S14" s="34">
         <v>5.0305321314335565</v>
+      </c>
+      <c r="T14" s="34">
+        <v>5.1321450522433931</v>
       </c>
     </row>
   </sheetData>
